--- a/Cohesion_Conflict_ODKX-2.1.8/app/config/tables/household_census/forms/household_census/household_census.xlsx
+++ b/Cohesion_Conflict_ODKX-2.1.8/app/config/tables/household_census/forms/household_census/household_census.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="196">
   <si>
     <t xml:space="preserve">comments</t>
   </si>
@@ -464,6 +464,18 @@
     <t xml:space="preserve">select_one</t>
   </si>
   <si>
+    <t xml:space="preserve">tokatoka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yavusa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mataquali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">membership_notes</t>
+  </si>
+  <si>
     <t xml:space="preserve">select_multiple</t>
   </si>
   <si>
@@ -539,15 +551,9 @@
     <t xml:space="preserve">Customary Membership Information:</t>
   </si>
   <si>
-    <t xml:space="preserve">tokatoka</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tokatoka:</t>
   </si>
   <si>
-    <t xml:space="preserve">yavusa</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yavusa:</t>
   </si>
   <si>
@@ -555,9 +561,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mataqali:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">membership_notes</t>
   </si>
   <si>
     <t xml:space="preserve">Extra Notes:</t>
@@ -628,7 +631,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -658,6 +661,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="10">
@@ -830,7 +839,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1040,6 +1049,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1164,11 +1177,11 @@
   </sheetPr>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="28" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="28" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.16"/>
@@ -1568,49 +1581,49 @@
   </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
-        <v>176</v>
+      <c r="K1" s="63" t="s">
+        <v>177</v>
       </c>
       <c r="L1" s="4"/>
     </row>
@@ -1640,7 +1653,7 @@
       <c r="E3" s="47"/>
       <c r="F3" s="47"/>
       <c r="G3" s="47" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
@@ -1657,7 +1670,7 @@
       <c r="E4" s="47"/>
       <c r="F4" s="47"/>
       <c r="G4" s="47" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -1714,11 +1727,11 @@
   </sheetPr>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15"/>
@@ -1792,7 +1805,7 @@
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>62</v>
@@ -1801,7 +1814,7 @@
         <v>109</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -1839,11 +1852,11 @@
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="40.66"/>
@@ -1902,14 +1915,14 @@
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="29" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
@@ -1924,10 +1937,10 @@
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="29" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -1938,14 +1951,14 @@
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="29" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
@@ -1960,10 +1973,10 @@
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -2001,11 +2014,11 @@
   </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.24"/>
@@ -2066,7 +2079,7 @@
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>83</v>
@@ -2075,7 +2088,7 @@
         <v>113</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
@@ -2113,11 +2126,11 @@
   </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.40625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="19.43359375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="42.52"/>
   </cols>
@@ -2154,7 +2167,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L1" s="4"/>
     </row>
@@ -2178,14 +2191,14 @@
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
       <c r="D3" s="29" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="29" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
@@ -2197,14 +2210,14 @@
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
       <c r="D4" s="29" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="29" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -2216,14 +2229,14 @@
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="29" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
@@ -2235,14 +2248,14 @@
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -2254,14 +2267,14 @@
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="29" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
@@ -2301,7 +2314,7 @@
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -2630,11 +2643,11 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.15"/>
@@ -2811,11 +2824,11 @@
   </sheetPr>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.35"/>
@@ -3024,13 +3037,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.85"/>
@@ -3077,170 +3090,207 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
     </row>
-    <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+    </row>
+    <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-    </row>
-    <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" s="28" t="s">
+      <c r="B11" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+    </row>
+    <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-    </row>
-    <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" s="42" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-    </row>
-    <row r="13" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+    </row>
+    <row r="17" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B18" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-    </row>
-    <row r="17" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-    </row>
-    <row r="18" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-    </row>
-    <row r="19" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-    </row>
-    <row r="20" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="53" t="s">
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+    </row>
+    <row r="21" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+    </row>
+    <row r="22" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+    </row>
+    <row r="23" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+    </row>
+    <row r="24" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B26" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="54"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="53" t="s">
+      <c r="C26" s="54"/>
+      <c r="D26" s="55"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B27" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="54"/>
-    </row>
+      <c r="C27" s="54"/>
+      <c r="D27" s="55"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3259,38 +3309,38 @@
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.41796875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="24.4453125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="56" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -3301,7 +3351,7 @@
     </row>
     <row r="2" s="12" customFormat="true" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B2" s="47" t="s">
         <v>34</v>
@@ -3321,14 +3371,14 @@
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
       <c r="D3" s="47" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E3" s="47"/>
       <c r="F3" s="47" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H3" s="47"/>
       <c r="I3" s="29"/>
@@ -3340,14 +3390,14 @@
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
       <c r="D4" s="47" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="47" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" s="29"/>
@@ -3359,7 +3409,7 @@
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E5" s="47" t="s">
         <v>52</v>
@@ -3368,7 +3418,7 @@
         <v>141</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H5" s="47"/>
       <c r="I5" s="29"/>
@@ -3384,10 +3434,10 @@
       </c>
       <c r="E6" s="47"/>
       <c r="F6" s="47" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H6" s="47"/>
       <c r="I6" s="29"/>
@@ -3423,11 +3473,11 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.4"/>
@@ -3439,31 +3489,31 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="56" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4"/>
@@ -3471,7 +3521,7 @@
     </row>
     <row r="2" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -3505,7 +3555,7 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -3519,10 +3569,10 @@
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="29" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
@@ -3536,10 +3586,10 @@
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="29" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -3553,10 +3603,10 @@
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
@@ -3570,10 +3620,10 @@
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="29" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="G8" s="29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -3609,7 +3659,7 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3633,35 +3683,35 @@
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="55" t="s">
-        <v>176</v>
+      <c r="K1" s="56" t="s">
+        <v>177</v>
       </c>
       <c r="L1" s="4"/>
     </row>
@@ -3682,70 +3732,70 @@
       <c r="L2" s="4"/>
     </row>
     <row r="3" s="12" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59" t="s">
+      <c r="A3" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59" t="s">
+      <c r="F3" s="59"/>
+      <c r="G3" s="60" t="s">
         <v>179</v>
+      </c>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="29"/>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="60" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="30"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="59"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
     </row>
     <row r="5" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
     </row>
     <row r="6" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-    </row>
-    <row r="7" s="60" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+    </row>
+    <row r="7" s="61" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -3764,7 +3814,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" s="60" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" s="61" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -3777,14 +3827,14 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" s="60" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="G10" s="61"/>
-    </row>
-    <row r="11" s="60" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" s="61" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="G10" s="62"/>
+    </row>
+    <row r="11" s="61" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="46"/>
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
@@ -3810,7 +3860,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="14" s="60" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" s="61" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -3841,11 +3891,11 @@
   </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.859375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
@@ -3861,38 +3911,38 @@
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="62" t="s">
-        <v>176</v>
+      <c r="K1" s="63" t="s">
+        <v>177</v>
       </c>
       <c r="L1" s="4"/>
     </row>
@@ -3922,7 +3972,7 @@
       <c r="E3" s="47"/>
       <c r="F3" s="47"/>
       <c r="G3" s="47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
@@ -3939,7 +3989,7 @@
       <c r="E4" s="47"/>
       <c r="F4" s="47"/>
       <c r="G4" s="47" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
